--- a/chaves_extraidas_final.xlsx
+++ b/chaves_extraidas_final.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -537,7 +537,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>XGC2D-NR6FB-P863X-VYHC8-29XTP</t>
+          <t>XGC2D-NR6FB-P883X-VYHC8-29XTP</t>
         </is>
       </c>
     </row>
@@ -562,6 +562,278 @@
       <c r="B11" t="inlineStr">
         <is>
           <t>WN7Y8-FWHGC-BW9P4-K4XC7-QPFC2</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>6.jpg</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>MMN9V-TGXP4-B7YKX-2K6YP-HH66T</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>6.jpg</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>G6DQH-3PN34-XGJJJ-79MC7-9BT6T</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>6.jpg</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>37B4Y-GNRXC-2DVP4-KYD7J-QDBP6</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>6.jpg</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>FYJC4-XGNJ9-QTPFD-424PX-3RR9G</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>6.jpg</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>PF4JN-7VG89-KBBJH-V7CRX-CDKTT</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>6.jpg</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>PNYH3-T3G8C-CM8QV-MW8XJ-RX8XG</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>6.jpg</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>JCXG2-N7VY3-HMM3Y-9R7MG-HFR9G</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>6.jpg</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>4YN2V-4PTRH-GPWWM-DPP7D-WQKTT</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>6.jpg</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>J3G9N-TJYJW-FV7PX-KMKF4-TVJXG</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>6.jpg</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>BP9CX-66N4X-JDK99-C2TWX-MG9TT</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>5.jpg</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>4GWNW-XHW2V-FTFY9-66B89-XKXTT</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>MANUAL</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>FFFFF</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>5.jpg</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>BBBBB-XHW2V-FTFY9-66889-XKXTT</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>MANUAL</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>PPPPP</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>MANUAL</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>5.jpg</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>BQXHN-4H3GP-26WQW-42KTP-MP2KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>5.jpg</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>TDDPG-7NX89-DY987-9XKYD-TCQGT</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>5.jpg</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>XHN3M-Q4CWK-YX6XJ-VKBW7-8HV26</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>5.jpg</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>J6KNY-WFMTR-V87V2-BKVKK-T83GT</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>5.jpg</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>AAAAA-XHW2V-FTFY9-66889-XKXTT</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>5.jpg</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>H4NQ6-WPGJ8-W4KYT-MFKM4-DJ3GT</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>5.jpg</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>KPBPR-NWY9R-QY4GP-X2979-JXCKG</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>MANUAL</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>A</t>
         </is>
       </c>
     </row>
